--- a/data/trans_orig/P58-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P58-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>63433</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46533</v>
+        <v>46561</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>85401</v>
+        <v>82693</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06148245277960263</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04510263021627028</v>
+        <v>0.04512955415502055</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0827751764882803</v>
+        <v>0.08015010008220011</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -765,19 +765,19 @@
         <v>35354</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22274</v>
+        <v>23498</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51546</v>
+        <v>52442</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02688259104800706</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01693717166032823</v>
+        <v>0.01786736678659083</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03919537559110334</v>
+        <v>0.03987674394664081</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>61</v>
@@ -786,19 +786,19 @@
         <v>98786</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>76738</v>
+        <v>75075</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>125727</v>
+        <v>126217</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04209348538550956</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0326984585298442</v>
+        <v>0.03199005637188607</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05357294517879668</v>
+        <v>0.05378174524990757</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>39156</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26021</v>
+        <v>25819</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>58009</v>
+        <v>56888</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03795163266418104</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02522120212951048</v>
+        <v>0.02502495627264848</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05622551105284208</v>
+        <v>0.05513856707357105</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>55</v>
@@ -836,19 +836,19 @@
         <v>66712</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50704</v>
+        <v>50948</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>84598</v>
+        <v>83641</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05072728128126906</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03855506391654624</v>
+        <v>0.03874046289955916</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06432769280320956</v>
+        <v>0.06360016609542012</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>79</v>
@@ -857,19 +857,19 @@
         <v>105868</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>85251</v>
+        <v>84798</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>131594</v>
+        <v>129852</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04511081255907962</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03632593667651964</v>
+        <v>0.03613304965588789</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0560730173693991</v>
+        <v>0.05533059859821408</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>929135</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>901608</v>
+        <v>904812</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>949902</v>
+        <v>950502</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9005659145562164</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8738860877187693</v>
+        <v>0.8769913773744781</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9206950140630977</v>
+        <v>0.9212762354999009</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1211</v>
@@ -907,19 +907,19 @@
         <v>1213046</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1191176</v>
+        <v>1190443</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1234986</v>
+        <v>1233863</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9223901276707239</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9057599312875261</v>
+        <v>0.9052026050865766</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9390730163870734</v>
+        <v>0.9382190668297755</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2182</v>
@@ -928,19 +928,19 @@
         <v>2142181</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2109710</v>
+        <v>2106155</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>2174095</v>
+        <v>2174597</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9127957020554108</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8989598390188366</v>
+        <v>0.8974448915816601</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9263944010217976</v>
+        <v>0.9266083139354001</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>99879</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>78057</v>
+        <v>78128</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>125976</v>
+        <v>127608</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05898075659291076</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04609455128268418</v>
+        <v>0.0461361542757642</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07439172821630664</v>
+        <v>0.07535562288813896</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>89</v>
@@ -1053,19 +1053,19 @@
         <v>141594</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>115619</v>
+        <v>113700</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>170480</v>
+        <v>169591</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0891833985753947</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07282311646229858</v>
+        <v>0.07161407263936294</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1073770280107627</v>
+        <v>0.1068173938482316</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>151</v>
@@ -1074,19 +1074,19 @@
         <v>241473</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>207272</v>
+        <v>207374</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>283926</v>
+        <v>277179</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07359540661886423</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06317190850095709</v>
+        <v>0.06320290725077393</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08653404408867818</v>
+        <v>0.0844777623325217</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>153178</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>125370</v>
+        <v>126179</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>183585</v>
+        <v>182708</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09045494859829961</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07403399796247412</v>
+        <v>0.07451191621645886</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.108411305420666</v>
+        <v>0.1078934751578493</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>109</v>
@@ -1124,19 +1124,19 @@
         <v>128046</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>105317</v>
+        <v>108492</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>151823</v>
+        <v>155033</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08065032645090976</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06633408943888051</v>
+        <v>0.0683342746013987</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09562587039780471</v>
+        <v>0.09764780723832478</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>199</v>
@@ -1145,19 +1145,19 @@
         <v>281224</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>246210</v>
+        <v>243810</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>322928</v>
+        <v>319102</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08571062452877229</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07503912256726694</v>
+        <v>0.07430780996104577</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09842124574184372</v>
+        <v>0.09725499990615472</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>1440357</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1402832</v>
+        <v>1403630</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1476047</v>
+        <v>1476486</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8505642948087896</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8284053675420726</v>
+        <v>0.8288766161850759</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8716404991043598</v>
+        <v>0.8718996887715385</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1351</v>
@@ -1195,19 +1195,19 @@
         <v>1318033</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1286329</v>
+        <v>1283142</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1352356</v>
+        <v>1350804</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8301662749736956</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8101976455683937</v>
+        <v>0.8081903384656576</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8517851498474772</v>
+        <v>0.850807128925359</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2847</v>
@@ -1216,19 +1216,19 @@
         <v>2758388</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2707587</v>
+        <v>2710621</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2807589</v>
+        <v>2806299</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8406939688523635</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8252108267199852</v>
+        <v>0.8261356156401384</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8556891573108404</v>
+        <v>0.8552960908714877</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>41103</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>27232</v>
+        <v>27363</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>56373</v>
+        <v>56429</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07454266745138172</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0493855322693068</v>
+        <v>0.04962373163681105</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1022341011373263</v>
+        <v>0.1023370288259642</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>30</v>
@@ -1341,19 +1341,19 @@
         <v>47656</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>33717</v>
+        <v>34093</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>64587</v>
+        <v>66712</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1000317855109574</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07077337325510999</v>
+        <v>0.0715610377754453</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1355702038633082</v>
+        <v>0.1400301277283231</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>56</v>
@@ -1362,19 +1362,19 @@
         <v>88760</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>67751</v>
+        <v>70116</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>115432</v>
+        <v>112887</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08635730335408104</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06591773053704063</v>
+        <v>0.06821812458830709</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1123076554261139</v>
+        <v>0.1098315053405055</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>80622</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61781</v>
+        <v>62119</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>100687</v>
+        <v>105323</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1462110219249139</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1120416716333138</v>
+        <v>0.1126549863236369</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1825999420204987</v>
+        <v>0.191006779308005</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -1412,19 +1412,19 @@
         <v>54877</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40890</v>
+        <v>39738</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>71033</v>
+        <v>69444</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1151873270687243</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08583010742311764</v>
+        <v>0.08341050898933519</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.149099441532075</v>
+        <v>0.1457639213399093</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>94</v>
@@ -1433,19 +1433,19 @@
         <v>135498</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>110780</v>
+        <v>112271</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>160031</v>
+        <v>160662</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1318310163780124</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1077812334643361</v>
+        <v>0.1092325685024831</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.155699297128818</v>
+        <v>0.1563130871962972</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>429683</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>407404</v>
+        <v>402985</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>451532</v>
+        <v>452643</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7792463106237044</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7388427999664694</v>
+        <v>0.7308284860794712</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8188704896532765</v>
+        <v>0.8208854265575941</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>376</v>
@@ -1483,19 +1483,19 @@
         <v>373879</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>351530</v>
+        <v>354098</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>392237</v>
+        <v>393373</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7847808874203183</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7378690263978667</v>
+        <v>0.743260241257458</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8233139765095709</v>
+        <v>0.8256994030623591</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>826</v>
@@ -1504,19 +1504,19 @@
         <v>803561</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>772598</v>
+        <v>770304</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>832317</v>
+        <v>832493</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7818116802679066</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7516864398780717</v>
+        <v>0.7494545864849842</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8097895026415504</v>
+        <v>0.8099605574298028</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>204415</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>175187</v>
+        <v>168200</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>243006</v>
+        <v>238033</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06238740062729376</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05346713267501402</v>
+        <v>0.05133459321319873</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07416544452589145</v>
+        <v>0.07264767811438756</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>141</v>
@@ -1629,19 +1629,19 @@
         <v>224604</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>189433</v>
+        <v>192960</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>260869</v>
+        <v>262990</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06646667827835435</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05605866462599759</v>
+        <v>0.05710221267301797</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0771984502075488</v>
+        <v>0.07782632367060643</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>268</v>
@@ -1650,19 +1650,19 @@
         <v>429019</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>379658</v>
+        <v>375574</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>476739</v>
+        <v>479229</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06445849756599953</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0570421975928932</v>
+        <v>0.05642859924641581</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07162821044596245</v>
+        <v>0.07200238625562158</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>272955</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>235508</v>
+        <v>235627</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>314092</v>
+        <v>316123</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08330578942801851</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07187687500314076</v>
+        <v>0.07191329335384623</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09586089141475403</v>
+        <v>0.09648065355233365</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>210</v>
@@ -1700,19 +1700,19 @@
         <v>249635</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>218569</v>
+        <v>218057</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>279946</v>
+        <v>281893</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07387405925164651</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06468070241121252</v>
+        <v>0.06452916281507348</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08284392421065352</v>
+        <v>0.08342006954124151</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>372</v>
@@ -1721,19 +1721,19 @@
         <v>522590</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>470941</v>
+        <v>472818</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>573669</v>
+        <v>579754</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07851718978712273</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07075719027808113</v>
+        <v>0.07103908529160916</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08619163502141176</v>
+        <v>0.08710581762441778</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>2799173</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2747729</v>
+        <v>2747732</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2846892</v>
+        <v>2850361</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8543068099446878</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8386061856285186</v>
+        <v>0.8386071748281158</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8688704994406453</v>
+        <v>0.8699295073313446</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2938</v>
@@ -1771,19 +1771,19 @@
         <v>2904958</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2865158</v>
+        <v>2856179</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2949613</v>
+        <v>2949529</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8596592624699991</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.847881236330258</v>
+        <v>0.8452241066940667</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8728740804620028</v>
+        <v>0.872848977565687</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5855</v>
@@ -1792,19 +1792,19 @@
         <v>5704131</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5642363</v>
+        <v>5634010</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5772150</v>
+        <v>5771550</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8570243126468777</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.847743965232807</v>
+        <v>0.8464888864838584</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8672439184705061</v>
+        <v>0.8671537034659964</v>
       </c>
     </row>
     <row r="19">
@@ -2135,19 +2135,19 @@
         <v>52159</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37598</v>
+        <v>36554</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>69359</v>
+        <v>69139</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05351583119134388</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03857617886635595</v>
+        <v>0.03750489585947382</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.071163432572401</v>
+        <v>0.07093767497967669</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -2156,19 +2156,19 @@
         <v>50297</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37256</v>
+        <v>36045</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>66428</v>
+        <v>66134</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03759717460623881</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02784875594327134</v>
+        <v>0.0269435531703005</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04965501162394431</v>
+        <v>0.04943518068520004</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -2177,19 +2177,19 @@
         <v>102456</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>79764</v>
+        <v>79769</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>124018</v>
+        <v>125137</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04430654235213541</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03449332362172641</v>
+        <v>0.03449574565294742</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05363088420638201</v>
+        <v>0.05411479775089829</v>
       </c>
     </row>
     <row r="5">
@@ -2206,19 +2206,19 @@
         <v>71701</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>51194</v>
+        <v>51360</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>97827</v>
+        <v>98843</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07356666370765677</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05252552905579819</v>
+        <v>0.05269635583398177</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1003722355781224</v>
+        <v>0.1014148757744393</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>40</v>
@@ -2227,19 +2227,19 @@
         <v>75436</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55049</v>
+        <v>57415</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>98550</v>
+        <v>104437</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05638839665592005</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04114933660941777</v>
+        <v>0.04291741212326816</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07366614003179456</v>
+        <v>0.07806665312934861</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>74</v>
@@ -2248,19 +2248,19 @@
         <v>147137</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>117899</v>
+        <v>117578</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>182418</v>
+        <v>184388</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06362866283486154</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0509847928652464</v>
+        <v>0.0508459330801645</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07888558514589146</v>
+        <v>0.07973745405771479</v>
       </c>
     </row>
     <row r="6">
@@ -2277,19 +2277,19 @@
         <v>850783</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>822968</v>
+        <v>819341</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>875706</v>
+        <v>873988</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8729175051009994</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.844378773779086</v>
+        <v>0.8406579649628598</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8984891402423186</v>
+        <v>0.8967267234975744</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1165</v>
@@ -2298,19 +2298,19 @@
         <v>1212063</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1185535</v>
+        <v>1181715</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1235412</v>
+        <v>1234631</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9060144287378411</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8861845556490733</v>
+        <v>0.8833291133694261</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9234672328602938</v>
+        <v>0.9228836934224753</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1999</v>
@@ -2319,19 +2319,19 @@
         <v>2062846</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2027256</v>
+        <v>2023282</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>2101653</v>
+        <v>2099896</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.892064794813003</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8766740261345088</v>
+        <v>0.8749555417160021</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9088463600584429</v>
+        <v>0.9080868384274731</v>
       </c>
     </row>
     <row r="7">
@@ -2423,19 +2423,19 @@
         <v>122447</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>100338</v>
+        <v>100228</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>148614</v>
+        <v>146764</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06234719626715834</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0510897439799778</v>
+        <v>0.05103374250986425</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07567079635849062</v>
+        <v>0.07472867872781259</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>116</v>
@@ -2444,19 +2444,19 @@
         <v>137600</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>113143</v>
+        <v>115685</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>162553</v>
+        <v>163914</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07827928557292542</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06436604021578611</v>
+        <v>0.06581235735902498</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09247481422835331</v>
+        <v>0.09324942886208276</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>211</v>
@@ -2465,19 +2465,19 @@
         <v>260047</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>223139</v>
+        <v>228332</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>295096</v>
+        <v>295965</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06987198788644666</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05995514295751111</v>
+        <v>0.06135060011518591</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07928938347373277</v>
+        <v>0.07952280223687559</v>
       </c>
     </row>
     <row r="9">
@@ -2494,19 +2494,19 @@
         <v>200558</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>164311</v>
+        <v>168571</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>236533</v>
+        <v>242897</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1021193441882625</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08366306203323555</v>
+        <v>0.08583211847509098</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.120436929811838</v>
+        <v>0.1236771454390624</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>100</v>
@@ -2515,19 +2515,19 @@
         <v>185955</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>152880</v>
+        <v>150469</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>218945</v>
+        <v>222195</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1057882274881588</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08697201310123878</v>
+        <v>0.08560069778107547</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1245560839304199</v>
+        <v>0.1264049374031641</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>197</v>
@@ -2536,19 +2536,19 @@
         <v>386513</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>336119</v>
+        <v>334082</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>437133</v>
+        <v>439109</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1038521729326515</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09031183350425931</v>
+        <v>0.08976448132966772</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1174532146945428</v>
+        <v>0.1179843152109552</v>
       </c>
     </row>
     <row r="10">
@@ -2565,19 +2565,19 @@
         <v>1640952</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1600684</v>
+        <v>1597359</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1683115</v>
+        <v>1677618</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8355334595445791</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8150300949175063</v>
+        <v>0.8133368811325795</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8570022103849986</v>
+        <v>0.8542028634299942</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1419</v>
@@ -2586,19 +2586,19 @@
         <v>1434249</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1392700</v>
+        <v>1394432</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1470109</v>
+        <v>1474400</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8159324869389158</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7922960808225726</v>
+        <v>0.7932812807700619</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8363332086813993</v>
+        <v>0.8387743594090586</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3083</v>
@@ -2607,19 +2607,19 @@
         <v>3075200</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3015371</v>
+        <v>3018304</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3129781</v>
+        <v>3135589</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8262758391809019</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8102003185777651</v>
+        <v>0.8109884567906993</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8409411680440484</v>
+        <v>0.8425016750027972</v>
       </c>
     </row>
     <row r="11">
@@ -2711,19 +2711,19 @@
         <v>33286</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21498</v>
+        <v>23153</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>47234</v>
+        <v>47949</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06917596836976059</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04467769609816589</v>
+        <v>0.04811730244890896</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09816210135066095</v>
+        <v>0.09964948516233781</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>36</v>
@@ -2732,19 +2732,19 @@
         <v>43477</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>31605</v>
+        <v>31498</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>57595</v>
+        <v>58710</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09479753034764087</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06891109406566261</v>
+        <v>0.06867729483429934</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1255796307894571</v>
+        <v>0.128010344464565</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>62</v>
@@ -2753,19 +2753,19 @@
         <v>76763</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>59695</v>
+        <v>58437</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>97530</v>
+        <v>96071</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08167936082349471</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06351838591350474</v>
+        <v>0.06217973629077802</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1037761766081249</v>
+        <v>0.1022235653668163</v>
       </c>
     </row>
     <row r="13">
@@ -2782,19 +2782,19 @@
         <v>86963</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64822</v>
+        <v>65301</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>112291</v>
+        <v>109837</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1807279945214738</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1347146197679646</v>
+        <v>0.1357108747667061</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2333654600274299</v>
+        <v>0.2282660863432771</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -2803,19 +2803,19 @@
         <v>90941</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>70386</v>
+        <v>68655</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>113061</v>
+        <v>112105</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1982879250294969</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1534706909364699</v>
+        <v>0.149695127451455</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2465175991102855</v>
+        <v>0.2444349524411673</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>92</v>
@@ -2824,19 +2824,19 @@
         <v>177904</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>148511</v>
+        <v>147221</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>209168</v>
+        <v>209468</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.189297288727333</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1580216182464957</v>
+        <v>0.1566496620314513</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2225635828835838</v>
+        <v>0.2228829381285598</v>
       </c>
     </row>
     <row r="14">
@@ -2853,19 +2853,19 @@
         <v>360932</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>334678</v>
+        <v>335846</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>383836</v>
+        <v>382592</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7500960371087656</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6955335355944123</v>
+        <v>0.6979609492443999</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7976955626411523</v>
+        <v>0.7951098718614811</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>326</v>
@@ -2874,19 +2874,19 @@
         <v>324213</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>301564</v>
+        <v>299648</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>346208</v>
+        <v>347402</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7069145446228623</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6575312764321967</v>
+        <v>0.6533523852140227</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7548732251995182</v>
+        <v>0.7574762503754542</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>696</v>
@@ -2895,19 +2895,19 @@
         <v>685146</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>651414</v>
+        <v>649097</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>717668</v>
+        <v>716105</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7290233504491723</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6931316572457286</v>
+        <v>0.6906659506892221</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7636289810250304</v>
+        <v>0.7619655921364886</v>
       </c>
     </row>
     <row r="15">
@@ -2999,19 +2999,19 @@
         <v>207892</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>178012</v>
+        <v>178253</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>241215</v>
+        <v>240784</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06079108827398114</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05205365617197012</v>
+        <v>0.05212416062789481</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07053508035844762</v>
+        <v>0.07040912797759573</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>194</v>
@@ -3020,19 +3020,19 @@
         <v>231374</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>198165</v>
+        <v>204369</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>263565</v>
+        <v>264367</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06509820185855136</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05575467429601185</v>
+        <v>0.05750021577290357</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07415525063336625</v>
+        <v>0.0743808731967953</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>355</v>
@@ -3041,19 +3041,19 @@
         <v>439266</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>395876</v>
+        <v>393157</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>481872</v>
+        <v>480688</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06298616239424261</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05676442677079369</v>
+        <v>0.05637460668544564</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06909536688469346</v>
+        <v>0.06892561937870237</v>
       </c>
     </row>
     <row r="17">
@@ -3070,19 +3070,19 @@
         <v>359222</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>311653</v>
+        <v>312365</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>407702</v>
+        <v>411698</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1050424408264014</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09113251045496568</v>
+        <v>0.09134065722808657</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1192186786599162</v>
+        <v>0.1203872093397024</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>190</v>
@@ -3091,19 +3091,19 @@
         <v>352332</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>308648</v>
+        <v>305573</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>400178</v>
+        <v>400109</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0991303341185307</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08683955056423553</v>
+        <v>0.08597440637206565</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.112592145053693</v>
+        <v>0.1125727342243397</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>363</v>
@@ -3112,19 +3112,19 @@
         <v>711554</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>646792</v>
+        <v>644187</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>780337</v>
+        <v>782064</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.102029399220728</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09274318383836981</v>
+        <v>0.09236965937224123</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1118921494212042</v>
+        <v>0.1121398215025294</v>
       </c>
     </row>
     <row r="18">
@@ -3141,19 +3141,19 @@
         <v>2852667</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2800419</v>
+        <v>2796254</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2909588</v>
+        <v>2908368</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8341664708996175</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8188881754903305</v>
+        <v>0.8176703008802881</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8508109629187212</v>
+        <v>0.8504542834391827</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2910</v>
@@ -3162,19 +3162,19 @@
         <v>2970524</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2911995</v>
+        <v>2917644</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3019936</v>
+        <v>3018949</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8357714640229179</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8193040949865683</v>
+        <v>0.8208933468806934</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8496738050823371</v>
+        <v>0.8493959903232849</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5778</v>
@@ -3183,19 +3183,19 @@
         <v>5823191</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5747575</v>
+        <v>5740264</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5898640</v>
+        <v>5894928</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8349844383850294</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8241417853323453</v>
+        <v>0.8230934422594276</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8458030175669032</v>
+        <v>0.8452707450394883</v>
       </c>
     </row>
     <row r="19">
@@ -3526,19 +3526,19 @@
         <v>24811</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15748</v>
+        <v>15761</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37748</v>
+        <v>36620</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03289113340791434</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02087622372092422</v>
+        <v>0.02089306373384764</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05004133863645378</v>
+        <v>0.04854531589647551</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -3547,19 +3547,19 @@
         <v>36530</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25686</v>
+        <v>26628</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49587</v>
+        <v>52147</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03672595506003567</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02582383448767538</v>
+        <v>0.02677138311837285</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0498529029766769</v>
+        <v>0.05242739057502888</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>53</v>
@@ -3568,19 +3568,19 @@
         <v>61341</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46732</v>
+        <v>46504</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>78729</v>
+        <v>78805</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03507199675842546</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02671931858755049</v>
+        <v>0.02658859969257835</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04501378105624231</v>
+        <v>0.04505726114262349</v>
       </c>
     </row>
     <row r="5">
@@ -3597,19 +3597,19 @@
         <v>41530</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27427</v>
+        <v>28454</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>58926</v>
+        <v>61543</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05505417319223264</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03635920068183966</v>
+        <v>0.03771991148909667</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07811484685295518</v>
+        <v>0.08158444715822498</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>29</v>
@@ -3618,19 +3618,19 @@
         <v>53716</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37433</v>
+        <v>37233</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>75270</v>
+        <v>76701</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0540047606242235</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03763402541686117</v>
+        <v>0.03743244802837942</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07567430426395477</v>
+        <v>0.07711232454565912</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>55</v>
@@ -3639,19 +3639,19 @@
         <v>95246</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>71593</v>
+        <v>72851</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>120530</v>
+        <v>124059</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05445737218901757</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04093364377428647</v>
+        <v>0.04165265217102174</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06891366004227434</v>
+        <v>0.07093136552941406</v>
       </c>
     </row>
     <row r="6">
@@ -3668,19 +3668,19 @@
         <v>688005</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>666677</v>
+        <v>666594</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>705614</v>
+        <v>703544</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.912054693399853</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8837810898463166</v>
+        <v>0.8836712600420025</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9353980456746195</v>
+        <v>0.9326547358706259</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>829</v>
@@ -3689,19 +3689,19 @@
         <v>904414</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>881458</v>
+        <v>879666</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>924276</v>
+        <v>923082</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9092692843157408</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8861902682086119</v>
+        <v>0.884388363320422</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9292383867682307</v>
+        <v>0.9280377834480191</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1545</v>
@@ -3710,19 +3710,19 @@
         <v>1592420</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1562084</v>
+        <v>1564274</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1618548</v>
+        <v>1621622</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.910470631052557</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8931261656904725</v>
+        <v>0.8943782924607862</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9254094896579906</v>
+        <v>0.927167475473252</v>
       </c>
     </row>
     <row r="7">
@@ -3814,19 +3814,19 @@
         <v>143660</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>120718</v>
+        <v>117523</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>172626</v>
+        <v>169841</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06918736289270154</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05813868022683683</v>
+        <v>0.05659962291250784</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08313773457370967</v>
+        <v>0.08179638366529571</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>122</v>
@@ -3835,19 +3835,19 @@
         <v>132219</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>109485</v>
+        <v>111169</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>153140</v>
+        <v>158202</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06649875111792179</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05506454840640641</v>
+        <v>0.05591178361493498</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07702057841278466</v>
+        <v>0.07956655466346667</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>230</v>
@@ -3856,19 +3856,19 @@
         <v>275879</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>245385</v>
+        <v>241504</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>312479</v>
+        <v>311275</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06787218916431152</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06036989272008158</v>
+        <v>0.05941528385981486</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07687656670027616</v>
+        <v>0.07658031820810471</v>
       </c>
     </row>
     <row r="9">
@@ -3885,19 +3885,19 @@
         <v>181865</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>151542</v>
+        <v>149690</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>215092</v>
+        <v>216809</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08758751468719733</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07298336735023034</v>
+        <v>0.07209174667131082</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.103589840782926</v>
+        <v>0.1044165474417643</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>123</v>
@@ -3906,19 +3906,19 @@
         <v>203594</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>167512</v>
+        <v>171954</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>236278</v>
+        <v>239523</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1023959930415941</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08424862581758936</v>
+        <v>0.08648274500531952</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1188343516807542</v>
+        <v>0.1204663881530841</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>230</v>
@@ -3927,19 +3927,19 @@
         <v>385459</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>342142</v>
+        <v>342122</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>432624</v>
+        <v>433217</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09483129821586628</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08417424893109673</v>
+        <v>0.0841694342425192</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.106434761221774</v>
+        <v>0.1065807998028176</v>
       </c>
     </row>
     <row r="10">
@@ -3956,19 +3956,19 @@
         <v>1750860</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1710287</v>
+        <v>1710906</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1787843</v>
+        <v>1792402</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8432251224201012</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8236848584348496</v>
+        <v>0.8239829597804751</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8610361587419697</v>
+        <v>0.8632319290739602</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1663</v>
@@ -3977,19 +3977,19 @@
         <v>1652487</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1612843</v>
+        <v>1613691</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1689829</v>
+        <v>1690032</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8311052558404841</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8111668821605502</v>
+        <v>0.8115935616856804</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8498861262729044</v>
+        <v>0.849988573344983</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3400</v>
@@ -3998,19 +3998,19 @@
         <v>3403347</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3347897</v>
+        <v>3347552</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3456107</v>
+        <v>3455086</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8372965126198222</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8236547604853968</v>
+        <v>0.8235697817651449</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8502767732216651</v>
+        <v>0.8500254585695602</v>
       </c>
     </row>
     <row r="11">
@@ -4102,19 +4102,19 @@
         <v>38900</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26297</v>
+        <v>26438</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>53856</v>
+        <v>54521</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07112975225830091</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04808533368657357</v>
+        <v>0.04834242591160688</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09847827961767439</v>
+        <v>0.09969406924180442</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>53</v>
@@ -4123,19 +4123,19 @@
         <v>59274</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>44838</v>
+        <v>46427</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>75060</v>
+        <v>76357</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.107939223517176</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08165122197866993</v>
+        <v>0.08454524263151351</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1366858962432229</v>
+        <v>0.1390491804392462</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>83</v>
@@ -4144,19 +4144,19 @@
         <v>98174</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>80282</v>
+        <v>78555</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>118720</v>
+        <v>118730</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08957233999000169</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07324813957447518</v>
+        <v>0.07167219918925634</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1083188163618684</v>
+        <v>0.1083273775614857</v>
       </c>
     </row>
     <row r="13">
@@ -4173,19 +4173,19 @@
         <v>90840</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71490</v>
+        <v>68633</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>113780</v>
+        <v>112300</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.166104320506799</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1307217817479175</v>
+        <v>0.1254977610421783</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2080501094502805</v>
+        <v>0.2053449442562459</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -4194,19 +4194,19 @@
         <v>68795</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51906</v>
+        <v>51822</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>90541</v>
+        <v>91296</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1252770190957848</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09452275927957982</v>
+        <v>0.0943702166046288</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1648777483110486</v>
+        <v>0.1662529700025603</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>95</v>
@@ -4215,19 +4215,19 @@
         <v>159635</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>131356</v>
+        <v>130539</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>188459</v>
+        <v>187247</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1456486860635394</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.119847366718372</v>
+        <v>0.1191019400671657</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1719471999775083</v>
+        <v>0.1708412428450157</v>
       </c>
     </row>
     <row r="14">
@@ -4244,19 +4244,19 @@
         <v>417146</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>392066</v>
+        <v>391933</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>439016</v>
+        <v>439996</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7627659272349</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7169061849720673</v>
+        <v>0.7166623408656427</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8027558323764986</v>
+        <v>0.8045474400418625</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>431</v>
@@ -4265,19 +4265,19 @@
         <v>421072</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>397123</v>
+        <v>397329</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>442028</v>
+        <v>440598</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7667837573870391</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.723172136695944</v>
+        <v>0.7235479547347845</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8049464595468099</v>
+        <v>0.8023414314326023</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>849</v>
@@ -4286,19 +4286,19 @@
         <v>838218</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>805021</v>
+        <v>806836</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>869357</v>
+        <v>866886</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7647789739464589</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7344903819079414</v>
+        <v>0.7361459508466518</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7931897704827033</v>
+        <v>0.7909350826323407</v>
       </c>
     </row>
     <row r="15">
@@ -4390,19 +4390,19 @@
         <v>207371</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>177524</v>
+        <v>177092</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>241892</v>
+        <v>242307</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06139557933058886</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05255902724985977</v>
+        <v>0.05243117733292824</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.071616099395361</v>
+        <v>0.07173905370042055</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>209</v>
@@ -4411,19 +4411,19 @@
         <v>228023</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>199086</v>
+        <v>196528</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>259786</v>
+        <v>258536</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06455736300737137</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05636470679418215</v>
+        <v>0.05564066680872499</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07354993879286693</v>
+        <v>0.07319599431583872</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>366</v>
@@ -4432,19 +4432,19 @@
         <v>435394</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>391842</v>
+        <v>394822</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>477760</v>
+        <v>480270</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06301181572580053</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05670886655378013</v>
+        <v>0.05714003547145392</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0691431601731354</v>
+        <v>0.06950638470182172</v>
       </c>
     </row>
     <row r="17">
@@ -4461,19 +4461,19 @@
         <v>314235</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>276655</v>
+        <v>274876</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>358991</v>
+        <v>359813</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09303465322055152</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08190826405495066</v>
+        <v>0.08138175290360157</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1062853357632429</v>
+        <v>0.1065287481750932</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>194</v>
@@ -4482,19 +4482,19 @@
         <v>326105</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>284820</v>
+        <v>286863</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>370430</v>
+        <v>371253</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09232608244868871</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08063750262019012</v>
+        <v>0.08121603732686679</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1048751620755981</v>
+        <v>0.1051084292577391</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>380</v>
@@ -4503,19 +4503,19 @@
         <v>640340</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>581652</v>
+        <v>577262</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>708754</v>
+        <v>698671</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09267244695119874</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08417878905114418</v>
+        <v>0.08354342481472975</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1025734535277687</v>
+        <v>0.1011142877548104</v>
       </c>
     </row>
     <row r="18">
@@ -4532,19 +4532,19 @@
         <v>2856011</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2801643</v>
+        <v>2802095</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2900920</v>
+        <v>2904497</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8455697674488596</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8294731228352288</v>
+        <v>0.8296070365968273</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8588657464960191</v>
+        <v>0.8599250363912532</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2923</v>
@@ -4553,19 +4553,19 @@
         <v>2977972</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2926722</v>
+        <v>2918954</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3026875</v>
+        <v>3020605</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8431165545439399</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8286066773927774</v>
+        <v>0.8264074311985428</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8569619552365301</v>
+        <v>0.8551866459701375</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5794</v>
@@ -4574,19 +4574,19 @@
         <v>5833984</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5758046</v>
+        <v>5765641</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5902380</v>
+        <v>5907821</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8443157373230007</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8333258120703104</v>
+        <v>0.8344249902081347</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8542143320018675</v>
+        <v>0.8550017848285206</v>
       </c>
     </row>
     <row r="19">
@@ -4917,19 +4917,19 @@
         <v>48314</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34997</v>
+        <v>33532</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>68670</v>
+        <v>68186</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08351162760641778</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06049270139498547</v>
+        <v>0.05796135729505515</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1186978881036042</v>
+        <v>0.1178618416461069</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -4938,19 +4938,19 @@
         <v>30547</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22132</v>
+        <v>22868</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41771</v>
+        <v>41651</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.03724662315897331</v>
+        <v>0.0372466231589733</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02698576760607812</v>
+        <v>0.02788302969593205</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05093222526705312</v>
+        <v>0.05078555126107966</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>80</v>
@@ -4959,19 +4959,19 @@
         <v>78861</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>62134</v>
+        <v>60322</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>100245</v>
+        <v>99310</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0563833242742808</v>
+        <v>0.05638332427428081</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04442432210175088</v>
+        <v>0.04312856175958917</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07167257352200093</v>
+        <v>0.07100356243905484</v>
       </c>
     </row>
     <row r="5">
@@ -4988,19 +4988,19 @@
         <v>10551</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5436</v>
+        <v>5532</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18844</v>
+        <v>19149</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01823797639868151</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009395919633950579</v>
+        <v>0.009561899276621816</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03257271813657091</v>
+        <v>0.03309990254263275</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -5009,19 +5009,19 @@
         <v>21223</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15860</v>
+        <v>14786</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29995</v>
+        <v>28849</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02587733622370555</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01933890642751757</v>
+        <v>0.01802927305147913</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03657341347605247</v>
+        <v>0.035176258493038</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>49</v>
@@ -5030,19 +5030,19 @@
         <v>31774</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>24459</v>
+        <v>23295</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>43323</v>
+        <v>42681</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02271745009746855</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01748729266615377</v>
+        <v>0.01665551801588223</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03097440528923301</v>
+        <v>0.03051579332496147</v>
       </c>
     </row>
     <row r="6">
@@ -5059,19 +5059,19 @@
         <v>519664</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>499899</v>
+        <v>499339</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>534596</v>
+        <v>534930</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8982503959949008</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8640868863815155</v>
+        <v>0.8631181780481821</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9240616180379757</v>
+        <v>0.9246378104653226</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1345</v>
@@ -5080,19 +5080,19 @@
         <v>768357</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>755257</v>
+        <v>755978</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>778054</v>
+        <v>778775</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9368760406173211</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9209026542677576</v>
+        <v>0.9217820612602944</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9486992691932763</v>
+        <v>0.9495785389368523</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1986</v>
@@ -5101,19 +5101,19 @@
         <v>1288021</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1265797</v>
+        <v>1265192</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1304969</v>
+        <v>1308365</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9208992256282506</v>
+        <v>0.9208992256282507</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9050092140574756</v>
+        <v>0.9045771234478711</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9330160884881232</v>
+        <v>0.9354446804608154</v>
       </c>
     </row>
     <row r="7">
@@ -5205,19 +5205,19 @@
         <v>186256</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>157926</v>
+        <v>158256</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>218641</v>
+        <v>222512</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08354419244684629</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07083694168965375</v>
+        <v>0.07098521627970249</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09807056685919585</v>
+        <v>0.09980694607220175</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>237</v>
@@ -5226,19 +5226,19 @@
         <v>195813</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>169225</v>
+        <v>170015</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>223213</v>
+        <v>223566</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09034716620700127</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07807982113039469</v>
+        <v>0.07844448760714005</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1029896245717693</v>
+        <v>0.103152464924884</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>389</v>
@@ -5247,19 +5247,19 @@
         <v>382068</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>344089</v>
+        <v>342794</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>430196</v>
+        <v>423899</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08689764411087007</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0782597355685723</v>
+        <v>0.07796509780906496</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09784375546429369</v>
+        <v>0.09641175637880652</v>
       </c>
     </row>
     <row r="9">
@@ -5276,19 +5276,19 @@
         <v>98715</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>79867</v>
+        <v>79496</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>124238</v>
+        <v>122492</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04427843563454661</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03582406415212149</v>
+        <v>0.03565769854045509</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05572634750374465</v>
+        <v>0.05494331999442702</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>140</v>
@@ -5297,19 +5297,19 @@
         <v>96835</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>79864</v>
+        <v>82587</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>113968</v>
+        <v>117520</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04467938838960545</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03684871625188824</v>
+        <v>0.03810554113604838</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0525843604675957</v>
+        <v>0.05422310681748586</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>228</v>
@@ -5318,19 +5318,19 @@
         <v>195551</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>171210</v>
+        <v>168751</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>227543</v>
+        <v>225973</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04447608091895476</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03893998337967758</v>
+        <v>0.03838065347633277</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05175245476697392</v>
+        <v>0.05139542805235854</v>
       </c>
     </row>
     <row r="10">
@@ -5347,19 +5347,19 @@
         <v>1944455</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1904183</v>
+        <v>1903846</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1979328</v>
+        <v>1981390</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8721773719186072</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.854113560154909</v>
+        <v>0.8539623818264845</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.887819714336781</v>
+        <v>0.8887445510256103</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2539</v>
@@ -5368,19 +5368,19 @@
         <v>1874687</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1841505</v>
+        <v>1844172</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1902351</v>
+        <v>1906073</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8649734454033932</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8496630964080327</v>
+        <v>0.8508937109534137</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8777374524554123</v>
+        <v>0.8794549344985856</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4290</v>
@@ -5389,19 +5389,19 @@
         <v>3819142</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3766684</v>
+        <v>3771777</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3863578</v>
+        <v>3864736</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8686262749701753</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8566952849928917</v>
+        <v>0.8578535399919633</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8787327641995466</v>
+        <v>0.8789962607478298</v>
       </c>
     </row>
     <row r="11">
@@ -5493,19 +5493,19 @@
         <v>59230</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>45012</v>
+        <v>45490</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>78555</v>
+        <v>78970</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.08337549696588527</v>
+        <v>0.08337549696588525</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0633604763508071</v>
+        <v>0.06403325668723499</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1105775590134118</v>
+        <v>0.1111620642547267</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>90</v>
@@ -5514,19 +5514,19 @@
         <v>67998</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>53791</v>
+        <v>55858</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>84487</v>
+        <v>83235</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09283157757416004</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07343646242936892</v>
+        <v>0.07625704745152925</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1153416009431854</v>
+        <v>0.1136333615340958</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>143</v>
@@ -5535,19 +5535,19 @@
         <v>127229</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>108294</v>
+        <v>106653</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>151577</v>
+        <v>151070</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.08817590507320644</v>
+        <v>0.08817590507320643</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07505317674094102</v>
+        <v>0.0739162008449322</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.105050318226014</v>
+        <v>0.1046990186757387</v>
       </c>
     </row>
     <row r="13">
@@ -5564,19 +5564,19 @@
         <v>69232</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54691</v>
+        <v>54565</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>87788</v>
+        <v>88660</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.09745385961735058</v>
+        <v>0.09745385961735056</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07698507772848918</v>
+        <v>0.07680852011993583</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.123574435713861</v>
+        <v>0.1248015851860768</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>84</v>
@@ -5585,19 +5585,19 @@
         <v>57705</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44705</v>
+        <v>45974</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69667</v>
+        <v>71668</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07877944569274258</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06103137782701003</v>
+        <v>0.0627637781582123</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09510931317227193</v>
+        <v>0.09784226181190336</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>152</v>
@@ -5606,19 +5606,19 @@
         <v>126937</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>107051</v>
+        <v>106666</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>151817</v>
+        <v>149872</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08797373653922094</v>
+        <v>0.08797373653922093</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07419155237370813</v>
+        <v>0.07392526422871191</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1052167333021958</v>
+        <v>0.1038689688725109</v>
       </c>
     </row>
     <row r="14">
@@ -5635,19 +5635,19 @@
         <v>581943</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>557208</v>
+        <v>559129</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>602542</v>
+        <v>602815</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8191706434167642</v>
+        <v>0.819170643416764</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7843523802490201</v>
+        <v>0.7870561562169889</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8481666721547184</v>
+        <v>0.8485517323378629</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>826</v>
@@ -5656,19 +5656,19 @@
         <v>606787</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>587554</v>
+        <v>587992</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>624057</v>
+        <v>623021</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8283889767330974</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8021328769946019</v>
+        <v>0.8027306556430567</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8519668238619442</v>
+        <v>0.8505518359817749</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1385</v>
@@ -5677,19 +5677,19 @@
         <v>1188730</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1155956</v>
+        <v>1160084</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1216314</v>
+        <v>1216036</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8238503583875726</v>
+        <v>0.8238503583875725</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8011364452436677</v>
+        <v>0.803997186218453</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8429676983705209</v>
+        <v>0.8427753682126842</v>
       </c>
     </row>
     <row r="15">
@@ -5781,19 +5781,19 @@
         <v>293800</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>256289</v>
+        <v>259845</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>335624</v>
+        <v>333455</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08350477584336458</v>
+        <v>0.08350477584336459</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07284325263856006</v>
+        <v>0.07385387251862056</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09539206345373277</v>
+        <v>0.09477577164841532</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>369</v>
@@ -5802,19 +5802,19 @@
         <v>294358</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>265003</v>
+        <v>264347</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>327409</v>
+        <v>327165</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.07912944755983915</v>
+        <v>0.07912944755983917</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0712382104621852</v>
+        <v>0.07106190388397539</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08801437309992892</v>
+        <v>0.0879487604750792</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>612</v>
@@ -5823,19 +5823,19 @@
         <v>588158</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>537259</v>
+        <v>541991</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>638496</v>
+        <v>645345</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08125618368906169</v>
+        <v>0.08125618368906166</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07422435293729336</v>
+        <v>0.07487812945659789</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08821067778998394</v>
+        <v>0.0891568613672042</v>
       </c>
     </row>
     <row r="17">
@@ -5852,19 +5852,19 @@
         <v>178498</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>152376</v>
+        <v>152676</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>209439</v>
+        <v>207080</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05073340433569724</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04330882993101556</v>
+        <v>0.04339418670207285</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05952731279709692</v>
+        <v>0.05885697489328462</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>261</v>
@@ -5873,19 +5873,19 @@
         <v>175763</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>154622</v>
+        <v>156320</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>199188</v>
+        <v>200879</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.04724874358843082</v>
+        <v>0.04724874358843083</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04156564854197229</v>
+        <v>0.04202211681223619</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05354593375075128</v>
+        <v>0.05400042369339834</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>429</v>
@@ -5894,19 +5894,19 @@
         <v>354261</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>320134</v>
+        <v>318104</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>392802</v>
+        <v>391390</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.04894254881378953</v>
+        <v>0.04894254881378952</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04422770840205784</v>
+        <v>0.04394720155678209</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05426711104115893</v>
+        <v>0.05407198472575268</v>
       </c>
     </row>
     <row r="18">
@@ -5923,19 +5923,19 @@
         <v>3046062</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2995495</v>
+        <v>2997861</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3089729</v>
+        <v>3089413</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8657618198209382</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8513896322660156</v>
+        <v>0.8520619704183751</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8781730485339367</v>
+        <v>0.8780832929568834</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4710</v>
@@ -5944,19 +5944,19 @@
         <v>3249831</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3213161</v>
+        <v>3208948</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3284432</v>
+        <v>3283934</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.8736218088517301</v>
+        <v>0.8736218088517302</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8637639831269995</v>
+        <v>0.862631523914776</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.882923174086759</v>
+        <v>0.8827893928070881</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>7661</v>
@@ -5965,19 +5965,19 @@
         <v>6295893</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>6236606</v>
+        <v>6233954</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>6353279</v>
+        <v>6354943</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.8698012674971489</v>
+        <v>0.8698012674971488</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8616106189528234</v>
+        <v>0.8612441961458428</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8777293840365937</v>
+        <v>0.8779593180080224</v>
       </c>
     </row>
     <row r="19">
